--- a/biology/Médecine/Edward_de_Bono/Edward_de_Bono.xlsx
+++ b/biology/Médecine/Edward_de_Bono/Edward_de_Bono.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edward de Bono, né le 19 mai 1933 à Malte, où il est mort le 9 juin 2021[1], est un psychologue, médecin et spécialiste en sciences cognitives maltais.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edward de Bono, né le 19 mai 1933 à Malte, où il est mort le 9 juin 2021, est un psychologue, médecin et spécialiste en sciences cognitives maltais.
 Connu principalement par son concept de pensée latérale, il est l'auteur de nombreux ouvrages et d'articles publiés dans The Lancet et Clinical Science.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Charles Francis Publius de Bono est né à Malte le 19 mai 1933. Formé au St. Edward's College, à Malte, il a ensuite obtenu un diplôme en médecine de l'université de Malte. Par la suite, il est devenu boursier Rhodes à Christ Church à Oxford, où il a obtenu une maîtrise en psychologie et physiologie. Il a représenté Oxford en polo et a établi deux records de canoë. Il a également un doctorat en médecine du Trinity College de l'université de Cambridge.
 De Bono a occupé des postes de professeurs dans les universités d'Oxford, de Cambridge (où il a aidé à établir la faculté de médecine de l'université), de Londres et de Harvard. Il est professeur à Malte, à Pretoria, au centre de l'Angleterre et à la Dublin City University. De Bono est titulaire de la chaire Da Vinci Professor of Thinking à l'université des technologies avancées de Tempe, Arizona aux États-Unis. Il était l'un des 27 ambassadeurs de l'Année européenne de la créativité et de l'innovation 2009.
@@ -551,7 +565,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Docteur honoris causa en design de l'Institut royal de technologie de Melbourne
 LLD honoraire de l'université de Dundee</t>
@@ -582,7 +598,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'astéroïde 2541 Edebono découvert par Luboš Kohoutek porte son nom.
 </t>
@@ -613,7 +631,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Use of Lateral Thinking (1967)  (ISBN 0-14-013788-2), introduction de l'expression lateral thinking
